--- a/LIBA14/files/Q03.xlsx
+++ b/LIBA14/files/Q03.xlsx
@@ -1,44 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E3D2F2-C766-4075-9700-AA3189031CCF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A4E98A-386C-4B50-8152-90DCD9C62F58}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" firstSheet="2" activeTab="4" xr2:uid="{114C4A40-3118-4908-BE0A-967DD933859A}"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Hello :)</t>
+    <t>Sheet 1</t>
+  </si>
+  <si>
+    <t>Sheet 2</t>
+  </si>
+  <si>
+    <t>Sheet 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,8 +40,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color rgb="FF002060"/>
+      <name val="Baskerville Old Face"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20"/>
+      <color rgb="FFFF9900"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -56,31 +80,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -97,37 +103,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -150,44 +150,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -237,9 +237,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -295,339 +295,279 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E109DFFE-3BB1-4D6E-8610-C1D147284F46}">
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="F6:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="6" spans="6:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="6:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="6:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F7:I9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311D05BB-7805-421C-B236-B72ADB424102}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D7:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D7" sqref="D7:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G8" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="4:6" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D7:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E0A9E4-807A-40D0-A70C-3FA5F0AEB1F4}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="E8:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
+    <row r="8" spans="5:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="4" t="s">
+        <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G2" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="G15" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="5:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2FD228-1B64-44E4-89C3-D52885212A9E}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G7" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="G10" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E8C42-90BE-4B25-9E09-053EB45A1625}">
-  <dimension ref="A1:G13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>